--- a/结果/3_前33位单品寻优情况.xlsx
+++ b/结果/3_前33位单品寻优情况.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>得分</t>
+          <t>最佳收益</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
